--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11088" windowHeight="7572"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,18 +21,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>likhitha</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>abc</t>
   </si>
   <si>
     <t>xyz</t>
+  </si>
+  <si>
+    <t>vio</t>
+  </si>
+  <si>
+    <t>opi</t>
+  </si>
+  <si>
+    <t>nml</t>
+  </si>
+  <si>
+    <t>nnn</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -47,12 +60,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -67,8 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,20 +370,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -372,23 +417,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>